--- a/2022/Symphony/JULY/27.07.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JULY/27.07.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3246,12 +3246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3283,6 +3277,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6427,67 +6427,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="E1" s="356"/>
-      <c r="F1" s="356"/>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
-      <c r="I1" s="356"/>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
-      <c r="M1" s="356"/>
-      <c r="N1" s="356"/>
-      <c r="O1" s="356"/>
-      <c r="P1" s="356"/>
-      <c r="Q1" s="356"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="355" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="357"/>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
-      <c r="I2" s="357"/>
-      <c r="J2" s="357"/>
-      <c r="K2" s="357"/>
-      <c r="L2" s="357"/>
-      <c r="M2" s="357"/>
-      <c r="N2" s="357"/>
-      <c r="O2" s="357"/>
-      <c r="P2" s="357"/>
-      <c r="Q2" s="357"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="355"/>
+      <c r="J2" s="355"/>
+      <c r="K2" s="355"/>
+      <c r="L2" s="355"/>
+      <c r="M2" s="355"/>
+      <c r="N2" s="355"/>
+      <c r="O2" s="355"/>
+      <c r="P2" s="355"/>
+      <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="356" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
-      <c r="H3" s="359"/>
-      <c r="I3" s="359"/>
-      <c r="J3" s="359"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="359"/>
-      <c r="M3" s="359"/>
-      <c r="N3" s="359"/>
-      <c r="O3" s="359"/>
-      <c r="P3" s="359"/>
-      <c r="Q3" s="360"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
+      <c r="H3" s="357"/>
+      <c r="I3" s="357"/>
+      <c r="J3" s="357"/>
+      <c r="K3" s="357"/>
+      <c r="L3" s="357"/>
+      <c r="M3" s="357"/>
+      <c r="N3" s="357"/>
+      <c r="O3" s="357"/>
+      <c r="P3" s="357"/>
+      <c r="Q3" s="358"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6496,49 +6496,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="361" t="s">
+      <c r="A4" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="363" t="s">
+      <c r="B4" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="352" t="s">
+      <c r="C4" s="363" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="352" t="s">
+      <c r="D4" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="352" t="s">
+      <c r="E4" s="363" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="352" t="s">
+      <c r="F4" s="363" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="352" t="s">
+      <c r="G4" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="352" t="s">
+      <c r="H4" s="363" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="352" t="s">
+      <c r="I4" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="352" t="s">
+      <c r="J4" s="363" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="352" t="s">
+      <c r="K4" s="363" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="352" t="s">
+      <c r="L4" s="363" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="352" t="s">
+      <c r="M4" s="363" t="s">
         <v>201</v>
       </c>
-      <c r="N4" s="352" t="s">
+      <c r="N4" s="363" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="354" t="s">
+      <c r="O4" s="352" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="365" t="s">
@@ -6554,21 +6554,21 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="362"/>
-      <c r="B5" s="364"/>
-      <c r="C5" s="353"/>
-      <c r="D5" s="353"/>
-      <c r="E5" s="353"/>
-      <c r="F5" s="353"/>
-      <c r="G5" s="353"/>
-      <c r="H5" s="353"/>
-      <c r="I5" s="353"/>
-      <c r="J5" s="353"/>
-      <c r="K5" s="353"/>
-      <c r="L5" s="353"/>
-      <c r="M5" s="353"/>
-      <c r="N5" s="353"/>
-      <c r="O5" s="355"/>
+      <c r="A5" s="360"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="364"/>
+      <c r="G5" s="364"/>
+      <c r="H5" s="364"/>
+      <c r="I5" s="364"/>
+      <c r="J5" s="364"/>
+      <c r="K5" s="364"/>
+      <c r="L5" s="364"/>
+      <c r="M5" s="364"/>
+      <c r="N5" s="364"/>
+      <c r="O5" s="353"/>
       <c r="P5" s="366"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
@@ -9752,6 +9752,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9768,9 +9771,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9784,8 +9784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34278,7 +34278,7 @@
   </sheetPr>
   <dimension ref="A1:Y206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
